--- a/NEW HR/OPO, CONEY VERGARA.xlsx
+++ b/NEW HR/OPO, CONEY VERGARA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
   <si>
     <t>PERIOD</t>
   </si>
@@ -334,6 +334,42 @@
   </si>
   <si>
     <t>10/2-4, 10-12/2023</t>
+  </si>
+  <si>
+    <t>10/16-18/2023</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>10/23-25/2023</t>
+  </si>
+  <si>
+    <t>10/16,17,18/2023</t>
+  </si>
+  <si>
+    <t>11/13-15, 20-22/2023</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>11/28-20/2023</t>
+  </si>
+  <si>
+    <t>12/6,11,12/2023</t>
+  </si>
+  <si>
+    <t>12/1,5/2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/21,22,27,28,29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1282,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="A8:K115" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="A8:K116" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1605,12 +1641,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K115"/>
+  <dimension ref="A2:K116"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,7 +1807,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table132[EARNED])-SUM(Table132[Absence Undertime W/ Pay])</f>
-        <v>61.25</v>
+        <v>63.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1781,7 +1817,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])</f>
-        <v>86.25</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3348,32 +3384,40 @@
       <c r="A86" s="24">
         <v>45200</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="14"/>
+      <c r="B86" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="12"/>
       <c r="E86" s="9"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="14">
+        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="K86" s="21" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
         <v>45231</v>
       </c>
       <c r="B87" s="12"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="12"/>
       <c r="E87" s="9"/>
       <c r="F87" s="12"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="9"/>
@@ -3399,26 +3443,26 @@
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="24">
-        <v>45292</v>
-      </c>
-      <c r="B89" s="12"/>
+      <c r="A89" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="21"/>
       <c r="C89" s="14"/>
-      <c r="D89" s="12"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="12"/>
+      <c r="F89" s="21"/>
       <c r="G89" s="14" t="str">
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="12"/>
+      <c r="H89" s="41"/>
       <c r="I89" s="9"/>
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="14"/>
@@ -3436,7 +3480,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="14"/>
@@ -3454,7 +3498,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="24">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="14"/>
@@ -3471,7 +3515,9 @@
       <c r="K92" s="21"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
+      <c r="A93" s="24">
+        <v>45383</v>
+      </c>
       <c r="B93" s="12"/>
       <c r="C93" s="14"/>
       <c r="D93" s="12"/>
@@ -3568,19 +3614,19 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24"/>
-      <c r="B99" s="13"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="14"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="13"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="12"/>
       <c r="G99" s="14" t="str">
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="13"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="16"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="21"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24"/>
@@ -3593,10 +3639,10 @@
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H100" s="12"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="21"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="16"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
@@ -3753,26 +3799,26 @@
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H110" s="13"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="16"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="21"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24"/>
-      <c r="B111" s="12"/>
+      <c r="B111" s="13"/>
       <c r="C111" s="14"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="12"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="13"/>
       <c r="G111" s="14" t="str">
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H111" s="12"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="21"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="16"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24"/>
@@ -3824,19 +3870,35 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24"/>
-      <c r="B115" s="13"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="14"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="13"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="12"/>
       <c r="G115" s="14" t="str">
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H115" s="13"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="16"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="21"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="24"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="14" t="str">
+        <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="13"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3886,9 +3948,9 @@
   <dimension ref="A2:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4051,7 +4113,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>28.090000000000003</v>
+        <v>3.0900000000000034</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -5120,9 +5182,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
-      <c r="B57" s="13"/>
+      <c r="B57" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="C57" s="14"/>
-      <c r="D57" s="13"/>
+      <c r="D57" s="13">
+        <v>3</v>
+      </c>
       <c r="E57" s="10"/>
       <c r="F57" s="13"/>
       <c r="G57" s="14" t="str">
@@ -5132,13 +5198,19 @@
       <c r="H57" s="12"/>
       <c r="I57" s="9"/>
       <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
+      <c r="K57" s="21" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
-      <c r="B58" s="13"/>
+      <c r="B58" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="C58" s="14"/>
-      <c r="D58" s="13"/>
+      <c r="D58" s="13">
+        <v>3</v>
+      </c>
       <c r="E58" s="10"/>
       <c r="F58" s="13"/>
       <c r="G58" s="14" t="str">
@@ -5148,13 +5220,19 @@
       <c r="H58" s="12"/>
       <c r="I58" s="9"/>
       <c r="J58" s="12"/>
-      <c r="K58" s="21"/>
+      <c r="K58" s="21" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
-      <c r="B59" s="13"/>
+      <c r="B59" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="C59" s="14"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="13">
+        <v>6</v>
+      </c>
       <c r="E59" s="10"/>
       <c r="F59" s="13"/>
       <c r="G59" s="14" t="str">
@@ -5164,13 +5242,21 @@
       <c r="H59" s="12"/>
       <c r="I59" s="9"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
+      <c r="K59" s="21" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="13"/>
+      <c r="A60" s="24">
+        <v>45231</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="C60" s="14"/>
-      <c r="D60" s="13"/>
+      <c r="D60" s="13">
+        <v>3</v>
+      </c>
       <c r="E60" s="10"/>
       <c r="F60" s="13"/>
       <c r="G60" s="14" t="str">
@@ -5180,13 +5266,19 @@
       <c r="H60" s="12"/>
       <c r="I60" s="9"/>
       <c r="J60" s="12"/>
-      <c r="K60" s="21"/>
+      <c r="K60" s="21" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
-      <c r="B61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="C61" s="14"/>
-      <c r="D61" s="13"/>
+      <c r="D61" s="13">
+        <v>3</v>
+      </c>
       <c r="E61" s="10"/>
       <c r="F61" s="13"/>
       <c r="G61" s="14" t="str">
@@ -5196,13 +5288,19 @@
       <c r="H61" s="12"/>
       <c r="I61" s="9"/>
       <c r="J61" s="12"/>
-      <c r="K61" s="21"/>
+      <c r="K61" s="21" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
-      <c r="B62" s="13"/>
+      <c r="B62" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="C62" s="14"/>
-      <c r="D62" s="13"/>
+      <c r="D62" s="13">
+        <v>2</v>
+      </c>
       <c r="E62" s="10"/>
       <c r="F62" s="13"/>
       <c r="G62" s="14" t="str">
@@ -5212,13 +5310,21 @@
       <c r="H62" s="12"/>
       <c r="I62" s="9"/>
       <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
+      <c r="K62" s="21" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="13"/>
+      <c r="A63" s="24">
+        <v>45261</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="C63" s="14"/>
-      <c r="D63" s="13"/>
+      <c r="D63" s="13">
+        <v>5</v>
+      </c>
       <c r="E63" s="10"/>
       <c r="F63" s="13"/>
       <c r="G63" s="14" t="str">
@@ -5228,7 +5334,9 @@
       <c r="H63" s="12"/>
       <c r="I63" s="9"/>
       <c r="J63" s="12"/>
-      <c r="K63" s="21"/>
+      <c r="K63" s="21" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
